--- a/data/results.xlsx
+++ b/data/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Uni/Graduate/CS 846 - Testing/finalProject/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF64CF8B-0211-E141-89ED-B720A58532FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F685A3FA-0AD6-964D-87BE-B04573A95938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="-28800" windowWidth="51200" windowHeight="28800" xr2:uid="{6CC1C315-78EC-4A46-B02E-24533C81C08C}"/>
   </bookViews>
@@ -18,7 +18,22 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$N$4:$N$18</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$O$3</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$O$3</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$O$4:$O$18</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$N$4:$N$18</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$O$3</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$O$4:$O$18</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$N$4:$N$18</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$O$3</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$O$4:$O$18</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$O$4:$O$18</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$N$4:$N$18</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$O$3</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$O$4:$O$18</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$N$4:$N$18</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$O$3</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$O$4:$O$18</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$N$4:$N$18</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -766,10 +781,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -807,31 +822,10 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7BB1F44F-92D0-AE48-B33F-34D02E13191C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.7</cx:f>
               <cx:v>Error Score</cx:v>
             </cx:txData>
           </cx:tx>
-          <cx:dataLabels pos="r">
-            <cx:txPr>
-              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr sz="1000"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:sysClr>
-                  </a:solidFill>
-                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-                </a:endParaRPr>
-              </a:p>
-            </cx:txPr>
-            <cx:visibility seriesName="0" categoryName="0" value="1"/>
-          </cx:dataLabels>
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:visibility meanLine="0" meanMarker="0" nonoutliers="0" outliers="1"/>
@@ -2085,13 +2079,13 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>107949</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>686651</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>97225</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -2127,8 +2121,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="15894050" y="514350"/>
-              <a:ext cx="9582150" cy="5010150"/>
+              <a:off x="15911368" y="509002"/>
+              <a:ext cx="5435570" cy="5804539"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2460,8 +2454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7081290-19B1-3E4D-8D7A-3ED707D5443B}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="209" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
